--- a/results/pvalue_SIDER_rare_target_AUROC.xlsx
+++ b/results/pvalue_SIDER_rare_target_AUROC.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>0.004</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.002</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.003</t>
+          <t>0.005</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7.207</t>
+          <t>5.894</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9.851</t>
+          <t>7.245</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.668</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>15.25</t>
+          <t>9.935</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.046</t>
+          <t>0.16</t>
         </is>
       </c>
     </row>
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5.991</t>
+          <t>6.052</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7.232</t>
+          <t>7.322</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.491</t>
+          <t>5.648</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8.785</t>
+          <t>9.095</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.865</t>
+          <t>1.723</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
